--- a/data/trans_camb/P50_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P50_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,54</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>-25,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,87</t>
+          <t>-24,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>-9,69</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,73</t>
+          <t>-7,76</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,27</t>
+          <t>-11,95</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-7,84</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-16,24</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,83</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-7,52</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 11,6</t>
+          <t>-32,59; 24,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 9,98</t>
+          <t>-56,43; -1,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 25,97</t>
+          <t>-20,62; 36,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 5,75</t>
+          <t>-57,2; 1,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 8,73</t>
+          <t>-28,71; 9,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,72; -3,52</t>
+          <t>-26,63; 11,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 3,84</t>
+          <t>-31,22; 9,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 5,72</t>
+          <t>-14,98; 28,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 5,71</t>
+          <t>-25,37; 12,2</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-33,32; 0,64</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-19,99; 17,81</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-28,23; 11,41</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,43%</t>
+          <t>-9,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,36%</t>
+          <t>-42,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,95%</t>
+          <t>-40,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,79%</t>
+          <t>-18,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-35,96%</t>
+          <t>-15,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-15,31%</t>
+          <t>-23,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,48%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-16,72%</t>
+          <t>-14,06%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-29,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-6,88%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-13,49%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,28; 32,82</t>
+          <t>-47,99; 57,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,4; 28,12</t>
+          <t>-75,15; -2,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 74,59</t>
+          <t>-33,03; 87,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,91; 13,98</t>
+          <t>-78,72; 2,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,46; 21,61</t>
+          <t>-48,94; 23,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,17; -9,6</t>
+          <t>-44,62; 28,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 11,26</t>
+          <t>-54,41; 21,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 13,7</t>
+          <t>-25,91; 71,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-40,76; 13,77</t>
+          <t>-41,28; 27,55</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-53,03; 1,14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-33,01; 36,73</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-46,45; 23,14</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,51</t>
+          <t>-15,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,07</t>
+          <t>-16,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>-9,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,11</t>
+          <t>-7,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-8,23</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,02</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-11,18</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-9,61</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-7,28</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-4,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,0; -1,83</t>
+          <t>-28,05; -5,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,73; -2,12</t>
+          <t>-29,07; -5,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 1,64</t>
+          <t>-21,65; 4,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 2,67</t>
+          <t>-20,93; 2,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 7,43</t>
+          <t>-16,33; 3,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 5,75</t>
+          <t>-13,35; 6,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -2,12</t>
+          <t>-14,98; 5,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,56; -0,68</t>
+          <t>-11,43; 10,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 0,66</t>
+          <t>-19,28; -3,7</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-18,7; -2,64</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-15,52; 1,17</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-13,02; 3,7</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-29,72%</t>
+          <t>-41,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-31,33%</t>
+          <t>-42,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,65%</t>
+          <t>-24,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,34%</t>
+          <t>-20,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
+          <t>-18,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,14%</t>
+          <t>-8,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-22,61%</t>
+          <t>-13,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-16,53%</t>
+          <t>-1,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-15,73%</t>
+          <t>-29,7%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-25,53%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-19,35%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-11,34%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,94; -6,41</t>
+          <t>-60,42; -14,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,71; -7,64</t>
+          <t>-62,16; -15,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,11; 4,94</t>
+          <t>-50,0; 14,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,87; 8,0</t>
+          <t>-47,2; 9,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 22,78</t>
+          <t>-39,1; 10,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 17,29</t>
+          <t>-32,48; 21,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,22; -5,5</t>
+          <t>-35,16; 19,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,77; -2,16</t>
+          <t>-27,51; 33,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,53; 1,9</t>
+          <t>-45,64; -11,46</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-42,08; -7,32</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-36,93; 4,37</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-31,33; 10,96</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-3,4</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-4,1</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,15</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 7,82</t>
+          <t>-9,04; 9,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 2,85</t>
+          <t>-12,39; 5,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 4,15</t>
+          <t>-11,5; 6,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 0,63</t>
+          <t>-8,75; 10,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 4,43</t>
+          <t>-14,54; 1,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 2,26</t>
+          <t>-12,76; 3,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 2,69</t>
+          <t>-12,21; 4,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 1,15</t>
+          <t>-8,11; 9,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 0,77</t>
+          <t>-9,91; 2,73</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-10,18; 2,63</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-9,5; 2,85</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 6,53</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,69%</t>
+          <t>-25,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-19,07%</t>
+          <t>-14,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-31,31%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,94%</t>
+          <t>-31,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,54%</t>
+          <t>-20,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-16,98%</t>
+          <t>-18,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-20,51%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-22,51%</t>
+          <t>-18,59%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-22,39%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-17,19%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 57,32</t>
+          <t>-44,91; 87,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,61; 22,63</t>
+          <t>-62,03; 49,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,32; 29,81</t>
+          <t>-57,94; 61,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,17; 4,56</t>
+          <t>-43,52; 89,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 24,47</t>
+          <t>-57,75; 13,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 14,69</t>
+          <t>-50,64; 25,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,31; 15,35</t>
+          <t>-49,55; 28,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,81; 7,65</t>
+          <t>-32,74; 65,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,63; 4,87</t>
+          <t>-47,08; 18,79</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-46,67; 20,05</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-44,14; 18,54</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-29,02; 43,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 0,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,31; -2,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,12; -1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 3,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,23; -0,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,27; -1,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -1,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,29; -0,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-18,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-25,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-17,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-19,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-16,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-15,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,57; -9,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 10,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,41; -3,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 10,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,09; -1,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,93; -6,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,52; -4,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-26,61; -1,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-7,9</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-12,67</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,01</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-6,08</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-6,98</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-4,09</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-5,07</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-7,41</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-8,18</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-4,53</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-17,04; 1,1</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-21,48; -4,93</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-13,38; 7,7</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-16,45; 1,87</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-14,01; -0,73</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-10,54; 2,23</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-11,25; 1,6</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 10,63</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-12,94; -1,53</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-13,91; -3,49</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 1,48</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 4,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-24,19%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-38,78%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-12,28%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-18,62%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-21,81%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-12,78%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-15,83%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>9,37%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-22,93%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-25,3%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-14,03%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-4,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-44,81; 6,54</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-56,18; -16,05</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-36,75; 26,43</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-42,07; 6,92</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-38,69; -2,56</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-29,88; 7,71</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-31,91; 5,96</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-11,72; 36,99</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-36,02; -4,43</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-39,13; -11,65</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-28,74; 5,26</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-21,81; 13,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
